--- a/vgp_database/Mariscal_Mtn_intrusions.xlsx
+++ b/vgp_database/Mariscal_Mtn_intrusions.xlsx
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -351,8 +351,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFD9D9D9"/>
@@ -382,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -409,7 +423,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -418,10 +432,10 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -431,10 +445,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -443,7 +457,7 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
@@ -456,13 +470,16 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1259,7 +1276,7 @@
       <c r="AK8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL8" s="10" t="s">
+      <c r="AL8" s="28" t="s">
         <v>40</v>
       </c>
       <c r="AM8" s="3"/>
@@ -1269,25 +1286,25 @@
       <c r="AQ8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="29">
         <v>29.085</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="29">
         <v>-103.177</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="29">
         <v>10.0</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="29">
         <v>355.6</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="29">
         <v>53.3</v>
       </c>
       <c r="H9" s="15">
@@ -1297,10 +1314,10 @@
         <v>3.4</v>
       </c>
       <c r="J9" s="17"/>
-      <c r="K9" s="28">
+      <c r="K9" s="29">
         <v>83.9</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="29">
         <v>219.7</v>
       </c>
       <c r="M9" s="20"/>
@@ -1353,35 +1370,35 @@
       <c r="AJ9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK9" s="28"/>
+      <c r="AK9" s="29"/>
       <c r="AL9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AQ9" s="28"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AQ9" s="29"/>
     </row>
     <row r="10">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="29">
         <v>29.087</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="29">
         <v>-103.196</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="29">
         <v>5.0</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="29">
         <v>345.7</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="29">
         <v>45.1</v>
       </c>
       <c r="H10" s="15">
@@ -1391,10 +1408,10 @@
         <v>13.8</v>
       </c>
       <c r="J10" s="17"/>
-      <c r="K10" s="28">
+      <c r="K10" s="29">
         <v>77.1</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="29">
         <v>159.3</v>
       </c>
       <c r="M10" s="20"/>
@@ -1447,35 +1464,35 @@
       <c r="AJ10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="29" t="s">
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AQ10" s="28"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AQ10" s="29"/>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="29">
         <v>29.087</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <v>-103.195</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>7.0</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <v>358.7</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="29">
         <v>50.4</v>
       </c>
       <c r="H11" s="15">
@@ -1485,10 +1502,10 @@
         <v>3.4</v>
       </c>
       <c r="J11" s="17"/>
-      <c r="K11" s="28">
+      <c r="K11" s="29">
         <v>87.7</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="29">
         <v>228.5</v>
       </c>
       <c r="M11" s="20"/>
@@ -1541,35 +1558,35 @@
       <c r="AJ11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="29" t="s">
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AQ11" s="28"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AQ11" s="29"/>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="29">
         <v>29.085</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="31">
         <v>-103.193</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="29">
         <v>9.0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="29">
         <v>345.5</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="29">
         <v>56.0</v>
       </c>
       <c r="H12" s="15">
@@ -1579,10 +1596,10 @@
         <v>3.3</v>
       </c>
       <c r="J12" s="17"/>
-      <c r="K12" s="28">
+      <c r="K12" s="29">
         <v>75.7</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="29">
         <v>202.1</v>
       </c>
       <c r="M12" s="20"/>
@@ -1635,35 +1652,35 @@
       <c r="AJ12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="29" t="s">
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AQ12" s="28"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AQ12" s="29"/>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="29">
         <v>29.086</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="29">
         <v>-103.192</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>7.0</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="29">
         <v>351.4</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="29">
         <v>54.2</v>
       </c>
       <c r="H13" s="15">
@@ -1673,10 +1690,10 @@
         <v>2.1</v>
       </c>
       <c r="J13" s="17"/>
-      <c r="K13" s="28">
+      <c r="K13" s="29">
         <v>80.8</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="29">
         <v>206.7</v>
       </c>
       <c r="M13" s="20"/>
@@ -1729,35 +1746,35 @@
       <c r="AJ13" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="29" t="s">
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
-      <c r="AQ13" s="28"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AQ13" s="29"/>
     </row>
     <row r="14">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="29">
         <v>29.106</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="31">
         <v>-103.171</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="29">
         <v>5.0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <v>331.1</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="29">
         <v>40.2</v>
       </c>
       <c r="H14" s="15">
@@ -1767,10 +1784,10 @@
         <v>4.2</v>
       </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="28">
+      <c r="K14" s="29">
         <v>63.4</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="29">
         <v>160.1</v>
       </c>
       <c r="M14" s="20"/>
@@ -1823,35 +1840,35 @@
       <c r="AJ14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="29" t="s">
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AQ14" s="28"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AQ14" s="29"/>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="29">
         <v>29.106</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="31">
         <v>-103.171</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="29">
         <v>6.0</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="29">
         <v>323.7</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="29">
         <v>42.2</v>
       </c>
       <c r="H15" s="15">
@@ -1861,10 +1878,10 @@
         <v>4.9</v>
       </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="28">
+      <c r="K15" s="29">
         <v>57.4</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="29">
         <v>167.2</v>
       </c>
       <c r="M15" s="20"/>
@@ -1922,34 +1939,34 @@
       <c r="AK15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AL15" s="29" t="s">
+      <c r="AL15" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AQ15" s="28"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AQ15" s="29"/>
     </row>
     <row r="16">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="29">
         <v>29.106</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="31">
         <v>-103.171</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <v>8.0</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="29">
         <v>323.9</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="29">
         <v>51.4</v>
       </c>
       <c r="H16" s="15">
@@ -1959,10 +1976,10 @@
         <v>2.6</v>
       </c>
       <c r="J16" s="17"/>
-      <c r="K16" s="28">
+      <c r="K16" s="29">
         <v>58.9</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="29">
         <v>181.5</v>
       </c>
       <c r="M16" s="20"/>
@@ -2015,35 +2032,35 @@
       <c r="AJ16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="29" t="s">
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AQ16" s="28"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AQ16" s="29"/>
     </row>
     <row r="17">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="29">
         <v>29.108</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="31">
         <v>-103.171</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="29">
         <v>8.0</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <v>331.2</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="29">
         <v>44.3</v>
       </c>
       <c r="H17" s="15">
@@ -2053,10 +2070,10 @@
         <v>5.0</v>
       </c>
       <c r="J17" s="17"/>
-      <c r="K17" s="28">
+      <c r="K17" s="29">
         <v>64.5</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="29">
         <v>166.7</v>
       </c>
       <c r="M17" s="20"/>
@@ -2109,35 +2126,35 @@
       <c r="AJ17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="29" t="s">
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AQ17" s="28"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AQ17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="29">
         <v>29.108</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="31">
         <v>-103.171</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="29">
         <v>8.0</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="29">
         <v>320.6</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="29">
         <v>47.2</v>
       </c>
       <c r="H18" s="15">
@@ -2147,10 +2164,10 @@
         <v>4.9</v>
       </c>
       <c r="J18" s="17"/>
-      <c r="K18" s="28">
+      <c r="K18" s="29">
         <v>55.6</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="29">
         <v>175.4</v>
       </c>
       <c r="M18" s="20"/>
@@ -2208,34 +2225,34 @@
       <c r="AK18" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AL18" s="29" t="s">
+      <c r="AL18" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AQ18" s="28"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AQ18" s="29"/>
     </row>
     <row r="19">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="29">
         <v>29.109</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="31">
         <v>-103.172</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="29">
         <v>9.0</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="29">
         <v>344.4</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="29">
         <v>45.0</v>
       </c>
       <c r="H19" s="15">
@@ -2245,10 +2262,10 @@
         <v>4.0</v>
       </c>
       <c r="J19" s="17"/>
-      <c r="K19" s="28">
+      <c r="K19" s="29">
         <v>76.0</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="29">
         <v>160.1</v>
       </c>
       <c r="M19" s="20"/>
@@ -2301,35 +2318,35 @@
       <c r="AJ19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="29" t="s">
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
-      <c r="AQ19" s="28"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AQ19" s="29"/>
     </row>
     <row r="20">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="29">
         <v>29.092</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="31">
         <v>-103.196</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="29">
         <v>8.0</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="29">
         <v>9.8</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="29">
         <v>42.1</v>
       </c>
       <c r="H20" s="15">
@@ -2339,10 +2356,10 @@
         <v>4.4</v>
       </c>
       <c r="J20" s="17"/>
-      <c r="K20" s="28">
+      <c r="K20" s="29">
         <v>80.0</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="29">
         <v>13.2</v>
       </c>
       <c r="M20" s="20"/>
@@ -2395,35 +2412,35 @@
       <c r="AJ20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="29" t="s">
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AQ20" s="28"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AQ20" s="29"/>
     </row>
     <row r="21">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="31">
         <v>29.094</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="29">
         <v>-103.197</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="29">
         <v>9.0</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="29">
         <v>358.2</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="29">
         <v>48.4</v>
       </c>
       <c r="H21" s="15">
@@ -2433,10 +2450,10 @@
         <v>6.2</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="K21" s="28">
+      <c r="K21" s="29">
         <v>88.4</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="29">
         <v>177.7</v>
       </c>
       <c r="M21" s="20"/>
@@ -2489,35 +2506,35 @@
       <c r="AJ21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="29" t="s">
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AQ21" s="28"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AQ21" s="29"/>
     </row>
     <row r="22">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="31">
         <v>29.099</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="29">
         <v>-103.201</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="29">
         <v>10.0</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="29">
         <v>352.1</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="29">
         <v>51.2</v>
       </c>
       <c r="H22" s="15">
@@ -2527,10 +2544,10 @@
         <v>2.3</v>
       </c>
       <c r="J22" s="17"/>
-      <c r="K22" s="28">
+      <c r="K22" s="29">
         <v>82.6</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="29">
         <v>191.0</v>
       </c>
       <c r="M22" s="20"/>
@@ -2583,35 +2600,35 @@
       <c r="AJ22" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="29" t="s">
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AQ22" s="28"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AQ22" s="29"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="29">
         <v>28.987</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="29">
         <v>-103.178</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="29">
         <v>9.0</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="29">
         <v>5.7</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="29">
         <v>55.8</v>
       </c>
       <c r="H23" s="15">
@@ -2621,10 +2638,10 @@
         <v>3.9</v>
       </c>
       <c r="J23" s="17"/>
-      <c r="K23" s="28">
+      <c r="K23" s="29">
         <v>81.2</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="29">
         <v>288.4</v>
       </c>
       <c r="M23" s="20"/>
@@ -2677,35 +2694,35 @@
       <c r="AJ23" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="29" t="s">
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AQ23" s="28"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AQ23" s="29"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="29">
         <v>28.988</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="29">
         <v>-103.177</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="29">
         <v>7.0</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="29">
         <v>347.0</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="29">
         <v>50.1</v>
       </c>
       <c r="H24" s="15">
@@ -2715,10 +2732,10 @@
         <v>3.7</v>
       </c>
       <c r="J24" s="17"/>
-      <c r="K24" s="28">
+      <c r="K24" s="29">
         <v>78.6</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="29">
         <v>179.6</v>
       </c>
       <c r="M24" s="20"/>
@@ -2771,35 +2788,35 @@
       <c r="AJ24" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="29" t="s">
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AQ24" s="28"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AQ24" s="29"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="29">
         <v>29.084</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="29">
         <v>-103.187</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="29">
         <v>9.0</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="29">
         <v>4.1</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="29">
         <v>55.3</v>
       </c>
       <c r="H25" s="15">
@@ -2809,10 +2826,10 @@
         <v>4.6</v>
       </c>
       <c r="J25" s="17"/>
-      <c r="K25" s="28">
+      <c r="K25" s="29">
         <v>82.4</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="29">
         <v>282.9</v>
       </c>
       <c r="M25" s="20"/>
@@ -2865,35 +2882,35 @@
       <c r="AJ25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="29" t="s">
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AQ25" s="28"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AQ25" s="29"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="29">
         <v>29.089</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="29">
         <v>-103.184</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="29">
         <v>7.0</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="29">
         <v>1.8</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="29">
         <v>54.2</v>
       </c>
       <c r="H26" s="15">
@@ -2903,10 +2920,10 @@
         <v>5.6</v>
       </c>
       <c r="J26" s="17"/>
-      <c r="K26" s="28">
+      <c r="K26" s="29">
         <v>84.2</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="29">
         <v>271.5</v>
       </c>
       <c r="M26" s="20"/>
@@ -2959,35 +2976,35 @@
       <c r="AJ26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="29" t="s">
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AQ26" s="28"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="29"/>
+      <c r="AQ26" s="29"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="29">
         <v>29.116</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="29">
         <v>-103.201</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="29">
         <v>9.0</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="29">
         <v>348.3</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="29">
         <v>53.2</v>
       </c>
       <c r="H27" s="15">
@@ -2997,10 +3014,10 @@
         <v>3.2</v>
       </c>
       <c r="J27" s="17"/>
-      <c r="K27" s="28">
+      <c r="K27" s="29">
         <v>79.0</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="29">
         <v>194.7</v>
       </c>
       <c r="M27" s="20"/>
@@ -3053,35 +3070,35 @@
       <c r="AJ27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="29" t="s">
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
-      <c r="AQ27" s="28"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AQ27" s="29"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="29">
         <v>29.116</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="29">
         <v>-103.201</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="29">
         <v>4.0</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="29">
         <v>344.5</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="29">
         <v>54.5</v>
       </c>
       <c r="H28" s="15">
@@ -3091,10 +3108,10 @@
         <v>7.2</v>
       </c>
       <c r="J28" s="17"/>
-      <c r="K28" s="28">
+      <c r="K28" s="29">
         <v>75.6</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="29">
         <v>195.0</v>
       </c>
       <c r="M28" s="20"/>
@@ -3152,34 +3169,34 @@
       <c r="AK28" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AL28" s="29" t="s">
+      <c r="AL28" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AQ28" s="28"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AQ28" s="29"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="29">
         <v>29.118</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="29">
         <v>-103.192</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="29">
         <v>8.0</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="29">
         <v>325.9</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="29">
         <v>51.4</v>
       </c>
       <c r="H29" s="15">
@@ -3189,10 +3206,10 @@
         <v>8.2</v>
       </c>
       <c r="J29" s="17"/>
-      <c r="K29" s="28">
+      <c r="K29" s="29">
         <v>60.6</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="29">
         <v>181.2</v>
       </c>
       <c r="M29" s="20"/>
@@ -3245,51 +3262,51 @@
       <c r="AJ29" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="29" t="s">
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM29" s="28"/>
-      <c r="AN29" s="28"/>
-      <c r="AO29" s="28"/>
-      <c r="AQ29" s="28"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AQ29" s="29"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
       <c r="Y30" s="12"/>
-      <c r="Z30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="28"/>
+      <c r="Z30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
@@ -3557,8 +3574,8 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3602,8 +3619,8 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
